--- a/step6-Statistic.xlsx
+++ b/step6-Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serkan\git\IE306Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB2B067-CA04-45EC-95A9-ECFD2EEE30E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9951D6E9-ADB2-4061-9914-C106ED22E6C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,10 +254,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z721"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5:X5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16:Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,24 +649,24 @@
       <c r="P1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
       <c r="U1" s="3" t="s">
         <v>39</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -706,24 +706,24 @@
         <v>37</v>
       </c>
       <c r="N2" s="3"/>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <f>_xlfn.STDEV.S(F2:F31)</f>
         <v>0</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <f>AVERAGE(F2:F31)</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="4">
-        <f t="shared" ref="Q2:Q25" si="0">P2-1.96*O2/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4">
-        <f t="shared" ref="S2:S25" si="1">P2+1.96*O2/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="4"/>
+      <c r="Q2" s="5">
+        <f>P2-2.045*O2/SQRT(30)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5">
+        <f>P2+2.045*O2/SQRT(30)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="5"/>
       <c r="U2" s="3">
         <f>_xlfn.STDEV.S(E2:E31)</f>
         <v>0</v>
@@ -732,16 +732,16 @@
         <f>AVERAGE(E2:E31)</f>
         <v>0</v>
       </c>
-      <c r="W2" s="4">
-        <f t="shared" ref="W2:W25" si="2">V2-1.96*U2/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4">
-        <f t="shared" ref="Y2:Y25" si="3">V2+1.96*U2/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="4"/>
+      <c r="W2" s="5">
+        <f>V2-2.045*U2/SQRT(30)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5">
+        <f>V2+2.045*U2/SQRT(30)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -781,24 +781,24 @@
         <v>38</v>
       </c>
       <c r="N3" s="3"/>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <f>_xlfn.STDEV.S(F32:F61)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <f>AVERAGE(F32:F61)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T3" s="4"/>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:Q25" si="0">P3-2.045*O3/SQRT(30)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5">
+        <f t="shared" ref="S3:S25" si="1">P3+2.045*O3/SQRT(30)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="5"/>
       <c r="U3" s="3">
         <f>_xlfn.STDEV.S(E32:E61)</f>
         <v>0</v>
@@ -807,16 +807,16 @@
         <f>AVERAGE(E32:E61)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4"/>
+      <c r="W3" s="5">
+        <f t="shared" ref="W3:W25" si="2">V3-2.045*U3/SQRT(30)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5">
+        <f t="shared" ref="Y3:Y25" si="3">V3+2.045*U3/SQRT(30)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -856,24 +856,24 @@
         <v>39</v>
       </c>
       <c r="N4" s="3"/>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <f>_xlfn.STDEV.S(F62:F91)</f>
         <v>0.58835549708393642</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <f>AVERAGE(F62:F91)</f>
         <v>1.4778649003163731</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="5">
         <f t="shared" si="0"/>
-        <v>1.2673245896274823</v>
-      </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4">
+        <v>1.2581940149292397</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5">
         <f t="shared" si="1"/>
-        <v>1.6884052110052639</v>
-      </c>
-      <c r="T4" s="4"/>
+        <v>1.6975357857035065</v>
+      </c>
+      <c r="T4" s="5"/>
       <c r="U4" s="3">
         <f>_xlfn.STDEV.S(E62:E91)</f>
         <v>2.2801464543112901</v>
@@ -882,16 +882,16 @@
         <f>AVERAGE(E62:E91)</f>
         <v>6.2607220924442464</v>
       </c>
-      <c r="W4" s="4">
-        <f>V4-1.96*U4/SQRT(30)</f>
-        <v>5.4447821627823254</v>
-      </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4">
+      <c r="W4" s="5">
+        <f t="shared" si="2"/>
+        <v>5.4093970127714766</v>
+      </c>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5">
         <f t="shared" si="3"/>
-        <v>7.0766620221061673</v>
-      </c>
-      <c r="Z4" s="4"/>
+        <v>7.1120471721170162</v>
+      </c>
+      <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -931,24 +931,24 @@
         <v>40</v>
       </c>
       <c r="N5" s="3"/>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <f>_xlfn.STDEV.S(F92:F121)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <f>AVERAGE(F92:F121)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4">
+      <c r="R5" s="5"/>
+      <c r="S5" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T5" s="4"/>
+      <c r="T5" s="5"/>
       <c r="U5" s="3">
         <f>_xlfn.STDEV.S(E92:E121)</f>
         <v>0</v>
@@ -957,16 +957,16 @@
         <f>AVERAGE(E92:E121)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4">
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="4"/>
+      <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -1006,24 +1006,24 @@
         <v>41</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <f>_xlfn.STDEV.S(F122:F151)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
         <f>AVERAGE(F122:F151)</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4">
+      <c r="R6" s="5"/>
+      <c r="S6" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T6" s="4"/>
+      <c r="T6" s="5"/>
       <c r="U6" s="3">
         <f>_xlfn.STDEV.S(E122:E151)</f>
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <f>AVERAGE(E122:E151)</f>
         <v>1</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4">
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z6" s="4"/>
+      <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -1089,16 +1089,16 @@
         <f>AVERAGE(F152:F181)</f>
         <v>2.4778649003163724</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="5">
         <f t="shared" si="0"/>
-        <v>2.2673245896274805</v>
-      </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4">
+        <v>2.2581940149292374</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5">
         <f t="shared" si="1"/>
-        <v>2.6884052110052643</v>
-      </c>
-      <c r="T7" s="4"/>
+        <v>2.6975357857035074</v>
+      </c>
+      <c r="T7" s="5"/>
       <c r="U7" s="3">
         <f>_xlfn.STDEV.S(E152:E181)</f>
         <v>2.2801464543112884</v>
@@ -1107,16 +1107,16 @@
         <f>AVERAGE(E152:E181)</f>
         <v>7.2607220924442464</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="5">
         <f t="shared" si="2"/>
-        <v>6.4447821627823254</v>
-      </c>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4">
+        <v>6.4093970127714774</v>
+      </c>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5">
         <f t="shared" si="3"/>
-        <v>8.0766620221061665</v>
-      </c>
-      <c r="Z7" s="4"/>
+        <v>8.1120471721170162</v>
+      </c>
+      <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -1164,16 +1164,16 @@
         <f>AVERAGE(F182:F211)</f>
         <v>1.2883888671830135</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="5">
         <f t="shared" si="0"/>
-        <v>1.071907838917012</v>
-      </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4">
+        <v>1.0625196310585374</v>
+      </c>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5">
         <f t="shared" si="1"/>
-        <v>1.5048698954490149</v>
-      </c>
-      <c r="T8" s="4"/>
+        <v>1.5142581033074896</v>
+      </c>
+      <c r="T8" s="5"/>
       <c r="U8" s="3">
         <f>_xlfn.STDEV.S(E182:E211)</f>
         <v>1.315842844316524</v>
@@ -1182,16 +1182,16 @@
         <f>AVERAGE(E182:E211)</f>
         <v>4.1023485688617107</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="5">
         <f t="shared" si="2"/>
-        <v>3.6314802543252838</v>
-      </c>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4">
+        <v>3.6110599447663061</v>
+      </c>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5">
         <f t="shared" si="3"/>
-        <v>4.5732168833981373</v>
-      </c>
-      <c r="Z8" s="4"/>
+        <v>4.5936371929571154</v>
+      </c>
+      <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -1239,16 +1239,16 @@
         <f>AVERAGE(F212:F241)</f>
         <v>1.5965039664162402</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="5">
         <f t="shared" si="0"/>
-        <v>1.1560279420093087</v>
-      </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4">
+        <v>1.1369256654406408</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5">
         <f t="shared" si="1"/>
-        <v>2.0369799908231716</v>
-      </c>
-      <c r="T9" s="4"/>
+        <v>2.0560822673918393</v>
+      </c>
+      <c r="T9" s="5"/>
       <c r="U9" s="3">
         <f>_xlfn.STDEV.S(E212:E241)</f>
         <v>2.7189493754858072</v>
@@ -1257,16 +1257,16 @@
         <f>AVERAGE(E212:E241)</f>
         <v>4.9028816572180025</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="5">
         <f t="shared" si="2"/>
-        <v>3.9299181188481374</v>
-      </c>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4">
+        <v>3.8877232715208732</v>
+      </c>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5">
         <f t="shared" si="3"/>
-        <v>5.8758451955878677</v>
-      </c>
-      <c r="Z9" s="4"/>
+        <v>5.9180400429151323</v>
+      </c>
+      <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -1314,16 +1314,16 @@
         <f>AVERAGE(F242:F271)</f>
         <v>1.4398110338582113</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="5">
         <f t="shared" si="0"/>
-        <v>1.0870220954126895</v>
-      </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4">
+        <v>1.0717225751229602</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5">
         <f t="shared" si="1"/>
-        <v>1.7925999723037331</v>
-      </c>
-      <c r="T10" s="4"/>
+        <v>1.8078994925934624</v>
+      </c>
+      <c r="T10" s="5"/>
       <c r="U10" s="3">
         <f>_xlfn.STDEV.S(E242:E271)</f>
         <v>2.090857314418102</v>
@@ -1332,16 +1332,16 @@
         <f>AVERAGE(E242:E271)</f>
         <v>4.351868557847677</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="5">
         <f t="shared" si="2"/>
-        <v>3.6036648769684527</v>
-      </c>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4">
+        <v>3.5712172683588945</v>
+      </c>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5">
         <f t="shared" si="3"/>
-        <v>5.1000722387269013</v>
-      </c>
-      <c r="Z10" s="4"/>
+        <v>5.1325198473364599</v>
+      </c>
+      <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -1389,16 +1389,16 @@
         <f>AVERAGE(F272:F301)</f>
         <v>6.0356958420380442</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="5">
         <f t="shared" si="0"/>
-        <v>5.2740481570736497</v>
-      </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4">
+        <v>5.2410175176746838</v>
+      </c>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5">
         <f t="shared" si="1"/>
-        <v>6.7973435270024387</v>
-      </c>
-      <c r="T11" s="4"/>
+        <v>6.8303741664014046</v>
+      </c>
+      <c r="T11" s="5"/>
       <c r="U11" s="3">
         <f>_xlfn.STDEV.S(E272:E301)</f>
         <v>4.0093282035371178</v>
@@ -1407,16 +1407,16 @@
         <f>AVERAGE(E272:E301)</f>
         <v>13.166666666666666</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="5">
         <f t="shared" si="2"/>
-        <v>11.73194699495429</v>
-      </c>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4">
+        <v>11.669727009191252</v>
+      </c>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5">
         <f t="shared" si="3"/>
-        <v>14.601386338379042</v>
-      </c>
-      <c r="Z11" s="4"/>
+        <v>14.66360632414208</v>
+      </c>
+      <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -1464,16 +1464,16 @@
         <f>AVERAGE(F302:F331)</f>
         <v>0.78080266700952694</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="5">
         <f t="shared" si="0"/>
-        <v>0.74645651056891704</v>
-      </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4">
+        <v>0.74496700888654366</v>
+      </c>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5">
         <f t="shared" si="1"/>
-        <v>0.81514882345013684</v>
-      </c>
-      <c r="T12" s="4"/>
+        <v>0.81663832513251022</v>
+      </c>
+      <c r="T12" s="5"/>
       <c r="U12" s="3">
         <f>_xlfn.STDEV.S(E302:E331)</f>
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <f>AVERAGE(E302:E331)</f>
         <v>1</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4">
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z12" s="4"/>
+      <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -1539,16 +1539,16 @@
         <f>AVERAGE(F332:F361)</f>
         <v>1</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4">
+      <c r="R13" s="5"/>
+      <c r="S13" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T13" s="4"/>
+      <c r="T13" s="5"/>
       <c r="U13" s="3">
         <f>_xlfn.STDEV.S(E332:E361)</f>
         <v>0</v>
@@ -1557,16 +1557,16 @@
         <f>AVERAGE(E332:E361)</f>
         <v>1</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4">
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z13" s="4"/>
+      <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -1614,16 +1614,16 @@
         <f>AVERAGE(F362:F391)</f>
         <v>0.78080266700952694</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="5">
         <f t="shared" si="0"/>
-        <v>0.74645651056891704</v>
-      </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4">
+        <v>0.74496700888654366</v>
+      </c>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5">
         <f t="shared" si="1"/>
-        <v>0.81514882345013684</v>
-      </c>
-      <c r="T14" s="4"/>
+        <v>0.81663832513251022</v>
+      </c>
+      <c r="T14" s="5"/>
       <c r="U14" s="3">
         <f>_xlfn.STDEV.S(E362:E391)</f>
         <v>0</v>
@@ -1632,16 +1632,16 @@
         <f>AVERAGE(E362:E391)</f>
         <v>1</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4">
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z14" s="4"/>
+      <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -1689,16 +1689,16 @@
         <f>AVERAGE(F392:F421)</f>
         <v>0.74857595880302774</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="5">
         <f t="shared" si="0"/>
-        <v>0.71113754167519161</v>
-      </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4">
+        <v>0.70951393685077013</v>
+      </c>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5">
         <f t="shared" si="1"/>
-        <v>0.78601437593086387</v>
-      </c>
-      <c r="T15" s="4"/>
+        <v>0.78763798075528535</v>
+      </c>
+      <c r="T15" s="5"/>
       <c r="U15" s="3">
         <f>_xlfn.STDEV.S(E392:E421)</f>
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <f>AVERAGE(E392:E421)</f>
         <v>1</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4">
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z15" s="4"/>
+      <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -1764,16 +1764,16 @@
         <f>AVERAGE(F422:F451)</f>
         <v>1</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4">
+      <c r="R16" s="5"/>
+      <c r="S16" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T16" s="4"/>
+      <c r="T16" s="5"/>
       <c r="U16" s="3">
         <f>_xlfn.STDEV.S(E422:E451)</f>
         <v>0</v>
@@ -1782,16 +1782,16 @@
         <f>AVERAGE(E422:E451)</f>
         <v>1</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4">
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z16" s="4"/>
+      <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17">
@@ -1839,16 +1839,16 @@
         <f>AVERAGE(F452:F481)</f>
         <v>0.74857595880302774</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="5">
         <f t="shared" si="0"/>
-        <v>0.71113754167519161</v>
-      </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4">
+        <v>0.70951393685077013</v>
+      </c>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5">
         <f t="shared" si="1"/>
-        <v>0.78601437593086387</v>
-      </c>
-      <c r="T17" s="4"/>
+        <v>0.78763798075528535</v>
+      </c>
+      <c r="T17" s="5"/>
       <c r="U17" s="3">
         <f>_xlfn.STDEV.S(E452:E481)</f>
         <v>0</v>
@@ -1857,16 +1857,16 @@
         <f>AVERAGE(E452:E481)</f>
         <v>1</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4">
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z17" s="4"/>
+      <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18">
@@ -1914,16 +1914,16 @@
         <f>AVERAGE(F482:F511)</f>
         <v>0.74972518350591599</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="5">
         <f t="shared" si="0"/>
-        <v>0.71612457157198717</v>
-      </c>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4">
+        <v>0.7146674021768934</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5">
         <f t="shared" si="1"/>
-        <v>0.78332579543984482</v>
-      </c>
-      <c r="T18" s="4"/>
+        <v>0.78478296483493859</v>
+      </c>
+      <c r="T18" s="5"/>
       <c r="U18" s="3">
         <f>_xlfn.STDEV.S(E482:E511)</f>
         <v>0</v>
@@ -1932,16 +1932,16 @@
         <f>AVERAGE(E482:E511)</f>
         <v>1</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4">
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z18" s="4"/>
+      <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19">
@@ -1989,16 +1989,16 @@
         <f>AVERAGE(F512:F541)</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4">
+      <c r="R19" s="5"/>
+      <c r="S19" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T19" s="4"/>
+      <c r="T19" s="5"/>
       <c r="U19" s="3">
         <f>_xlfn.STDEV.S(E512:E541)</f>
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <f>AVERAGE(E512:E541)</f>
         <v>1</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W19" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4">
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z19" s="4"/>
+      <c r="Z19" s="5"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20">
@@ -2064,16 +2064,16 @@
         <f>AVERAGE(F542:F571)</f>
         <v>0.74972518350591599</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="5">
         <f t="shared" si="0"/>
-        <v>0.71612457157198717</v>
-      </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4">
+        <v>0.7146674021768934</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5">
         <f t="shared" si="1"/>
-        <v>0.78332579543984482</v>
-      </c>
-      <c r="T20" s="4"/>
+        <v>0.78478296483493859</v>
+      </c>
+      <c r="T20" s="5"/>
       <c r="U20" s="3">
         <f>_xlfn.STDEV.S(E542:E571)</f>
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <f>AVERAGE(E542:E571)</f>
         <v>1</v>
       </c>
-      <c r="W20" s="4">
+      <c r="W20" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4">
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z20" s="4"/>
+      <c r="Z20" s="5"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21">
@@ -2139,16 +2139,16 @@
         <f>AVERAGE(F572:F601)</f>
         <v>1.0613489217167256</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="5">
         <f t="shared" si="0"/>
-        <v>0.83982126834506854</v>
-      </c>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4">
+        <v>0.83021420174476701</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5">
         <f t="shared" si="1"/>
-        <v>1.2828765750883826</v>
-      </c>
-      <c r="T21" s="4"/>
+        <v>1.292483641688684</v>
+      </c>
+      <c r="T21" s="5"/>
       <c r="U21" s="3">
         <f>_xlfn.STDEV.S(E572:E601)</f>
         <v>1.4076964145021824</v>
@@ -2157,16 +2157,16 @@
         <f>AVERAGE(E572:E601)</f>
         <v>4.8666666666666663</v>
       </c>
-      <c r="W21" s="4">
+      <c r="W21" s="5">
         <f t="shared" si="2"/>
-        <v>4.3629289741765671</v>
-      </c>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4">
+        <v>4.341083206900211</v>
+      </c>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5">
         <f t="shared" si="3"/>
-        <v>5.3704043591567654</v>
-      </c>
-      <c r="Z21" s="4"/>
+        <v>5.3922501264331215</v>
+      </c>
+      <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22">
@@ -2214,16 +2214,16 @@
         <f>AVERAGE(F602:F631)</f>
         <v>1.4703952300875842</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="5">
         <f t="shared" si="0"/>
-        <v>0.93282282133564354</v>
-      </c>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4">
+        <v>0.90950973218058484</v>
+      </c>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5">
         <f t="shared" si="1"/>
-        <v>2.0079676388395251</v>
-      </c>
-      <c r="T22" s="4"/>
+        <v>2.0312807279945835</v>
+      </c>
+      <c r="T22" s="5"/>
       <c r="U22" s="3">
         <f>_xlfn.STDEV.S(E602:E631)</f>
         <v>3.2941955221162931</v>
@@ -2232,16 +2232,16 @@
         <f>AVERAGE(E602:E631)</f>
         <v>5.9</v>
       </c>
-      <c r="W22" s="4">
+      <c r="W22" s="5">
         <f t="shared" si="2"/>
-        <v>4.7211872717535401</v>
-      </c>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4">
+        <v>4.6700652911918317</v>
+      </c>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5">
         <f t="shared" si="3"/>
-        <v>7.0788127282464606</v>
-      </c>
-      <c r="Z22" s="4"/>
+        <v>7.129934708808169</v>
+      </c>
+      <c r="Z22" s="5"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23">
@@ -2289,16 +2289,16 @@
         <f>AVERAGE(F632:F661)</f>
         <v>1.2248478809152636</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="5">
         <f t="shared" si="0"/>
-        <v>0.88513604984293148</v>
-      </c>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4">
+        <v>0.87040364900561096</v>
+      </c>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5">
         <f t="shared" si="1"/>
-        <v>1.5645597119875958</v>
-      </c>
-      <c r="T23" s="4"/>
+        <v>1.5792921128249162</v>
+      </c>
+      <c r="T23" s="5"/>
       <c r="U23" s="3">
         <f>_xlfn.STDEV.S(E632:E661)</f>
         <v>2.6961019115087947</v>
@@ -2307,16 +2307,16 @@
         <f>AVERAGE(E632:E661)</f>
         <v>5.2</v>
       </c>
-      <c r="W23" s="4">
+      <c r="W23" s="5">
         <f t="shared" si="2"/>
-        <v>4.2352123216127726</v>
-      </c>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4">
+        <v>4.1933720396418988</v>
+      </c>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5">
         <f t="shared" si="3"/>
-        <v>6.1647876783872277</v>
-      </c>
-      <c r="Z23" s="4"/>
+        <v>6.2066279603581016</v>
+      </c>
+      <c r="Z23" s="5"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24">
@@ -2364,16 +2364,16 @@
         <f>AVERAGE(F662:F691)</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4">
+      <c r="R24" s="5"/>
+      <c r="S24" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T24" s="4"/>
+      <c r="T24" s="5"/>
       <c r="U24" s="3">
         <f>_xlfn.STDEV.S(E662:E691)</f>
         <v>0</v>
@@ -2382,16 +2382,16 @@
         <f>AVERAGE(E662:E691)</f>
         <v>0</v>
       </c>
-      <c r="W24" s="4">
+      <c r="W24" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4">
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="4"/>
+      <c r="Z24" s="5"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25">
@@ -2439,16 +2439,16 @@
         <f>AVERAGE(F692:F721)</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4">
+      <c r="R25" s="5"/>
+      <c r="S25" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T25" s="4"/>
+      <c r="T25" s="5"/>
       <c r="U25" s="3">
         <f>_xlfn.STDEV.S(E692:E721)</f>
         <v>0</v>
@@ -2457,16 +2457,16 @@
         <f>AVERAGE(E692:E721)</f>
         <v>0</v>
       </c>
-      <c r="W25" s="4">
+      <c r="W25" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4">
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="4"/>
+      <c r="Z25" s="5"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26">
